--- a/Fowp.xlsx
+++ b/Fowp.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoWP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\fowp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2345DB9F-1CF1-407B-900D-46C5380CD482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B2B56-D6EE-4F5F-92AE-1478F57543DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{EB4B5104-CB87-4736-9C05-D410227E0005}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="7" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Final!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8130,21 +8133,24 @@
   <dimension ref="A1:L1156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="600" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="35.73046875" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="24.265625" customWidth="1"/>
-    <col min="6" max="6" width="17.265625" customWidth="1"/>
-    <col min="7" max="7" width="28.265625" customWidth="1"/>
-    <col min="9" max="9" width="17.265625" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="26.1328125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="97.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
@@ -47173,6 +47179,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{96F0923E-80B3-4272-8A4E-7F87E08D6B52}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1156">
     <sortCondition ref="J2:J1156"/>
     <sortCondition ref="D2:D1156"/>

--- a/Fowp.xlsx
+++ b/Fowp.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\fowp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\fowp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7B2B56-D6EE-4F5F-92AE-1478F57543DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2F5CA-72B5-4D2A-B5B9-8FE57DD04210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{EB4B5104-CB87-4736-9C05-D410227E0005}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{EB4B5104-CB87-4736-9C05-D410227E0005}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="7" r:id="rId1"/>
+    <sheet name="Test" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Final!$A$1:$L$1</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8157" uniqueCount="2537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8197" uniqueCount="2537">
   <si>
     <t>same</t>
   </si>
@@ -8132,8 +8133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F0923E-80B3-4272-8A4E-7F87E08D6B52}">
   <dimension ref="A1:L1156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
+    <sheetView topLeftCell="K5" workbookViewId="0">
+      <pane ySplit="600"/>
+      <selection sqref="A1:L5"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -47186,4 +47188,193 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8121C247-EB53-4B2E-A2E4-AC752FA5E2CE}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="18">
+        <v>952</v>
+      </c>
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="7">
+        <v>44681</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="18">
+        <v>863</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7">
+        <v>44667</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="18">
+        <v>859</v>
+      </c>
+      <c r="B4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7">
+        <v>44667</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="18">
+        <v>869</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44667</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fowp.xlsx
+++ b/Fowp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\fowp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2F5CA-72B5-4D2A-B5B9-8FE57DD04210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608E9E0-0D90-42A4-B27D-DEA221389A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{EB4B5104-CB87-4736-9C05-D410227E0005}"/>
   </bookViews>
@@ -47195,10 +47195,13 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="43.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
@@ -47260,8 +47263,12 @@
       <c r="G2" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2</v>
+      </c>
       <c r="J2" s="9" t="s">
         <v>269</v>
       </c>
@@ -47294,8 +47301,12 @@
       <c r="G3" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="8">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8">
+        <v>4</v>
+      </c>
       <c r="J3" s="8" t="s">
         <v>241</v>
       </c>
@@ -47328,8 +47339,12 @@
       <c r="G4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>6</v>
+      </c>
       <c r="J4" s="8" t="s">
         <v>241</v>
       </c>
@@ -47362,8 +47377,12 @@
       <c r="G5" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="8">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8">
+        <v>8</v>
+      </c>
       <c r="J5" s="8" t="s">
         <v>241</v>
       </c>

--- a/Fowp.xlsx
+++ b/Fowp.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\fowp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608E9E0-0D90-42A4-B27D-DEA221389A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB5576-5D38-45EF-82A6-9CCAA1CCC02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{EB4B5104-CB87-4736-9C05-D410227E0005}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{EB4B5104-CB87-4736-9C05-D410227E0005}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="7" r:id="rId1"/>
-    <sheet name="Test" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Final!$A$1:$L$1</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8197" uniqueCount="2537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8157" uniqueCount="2537">
   <si>
     <t>same</t>
   </si>
@@ -8133,10 +8132,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F0923E-80B3-4272-8A4E-7F87E08D6B52}">
   <dimension ref="A1:L1156"/>
   <sheetViews>
-    <sheetView topLeftCell="K5" workbookViewId="0">
-      <pane ySplit="600"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A20" activePane="bottomLeft"/>
       <selection sqref="A1:L5"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -47188,212 +47187,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8121C247-EB53-4B2E-A2E4-AC752FA5E2CE}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="12" max="12" width="43.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
-        <v>952</v>
-      </c>
-      <c r="B2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="7">
-        <v>44681</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
-        <v>863</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7">
-        <v>44667</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="8">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8">
-        <v>4</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
-        <v>859</v>
-      </c>
-      <c r="B4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7">
-        <v>44667</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H4" s="8">
-        <v>5</v>
-      </c>
-      <c r="I4" s="8">
-        <v>6</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
-        <v>869</v>
-      </c>
-      <c r="B5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44667</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="8">
-        <v>7</v>
-      </c>
-      <c r="I5" s="8">
-        <v>8</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>